--- a/в бланки заводов/Черкизово КИ/cherkizovo/новый_бланк/Единый Бланк заказа КИ Узбекистан (заказ на ).xlsx
+++ b/в бланки заводов/Черкизово КИ/cherkizovo/новый_бланк/Единый Бланк заказа КИ Узбекистан (заказ на ).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Тестирование\cherkizovo\новый_бланк\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Черкизово КИ\cherkizovo\новый_бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28B5E42-B022-4BB9-8729-4E4003C48ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338EC420-9995-47FF-8AFD-D9EE9794C25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$10:$M$174</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1695,7 +1703,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7721,7 +7729,7 @@
       </c>
       <c r="G160" s="38"/>
       <c r="H160" s="30">
-        <f t="shared" si="5"/>
+        <f>G160*1</f>
         <v>0</v>
       </c>
       <c r="I160" s="46"/>
